--- a/BalanceSheet/CZR_bal.xlsx
+++ b/BalanceSheet/CZR_bal.xlsx
@@ -1682,13 +1682,13 @@
         <v>274000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-11177000.0</v>
+        <v>40000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-27135000.0</v>
+        <v>47000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>53676000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>50024000.0</v>
@@ -2982,19 +2982,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>176000000.0</v>
+        <v>1166000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>52293000.0</v>
+        <v>1080000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-13163000.0</v>
+        <v>145000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-39130000.0</v>
+        <v>158000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-27729000.0</v>
+        <v>197000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>224877000.0</v>
